--- a/rtss-pre1917/src/main/resources/juifs.xlsx
+++ b/rtss-pre1917/src/main/resources/juifs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE4692D-C838-42DE-95A9-084FAB3F8F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA40308-8445-4A9E-9C7F-226FF9CA9DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="81195" yWindow="1590" windowWidth="30105" windowHeight="20805" activeTab="1" xr2:uid="{B3F80405-168D-426C-B218-9F047A83BCAC}"/>
   </bookViews>
@@ -204,9 +204,6 @@
     <t>Люблинская</t>
   </si>
   <si>
-    <t>Потроковская</t>
-  </si>
-  <si>
     <t>Плоцкая</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>% иудеев</t>
+  </si>
+  <si>
+    <t>Петроковская</t>
   </si>
 </sst>
 </file>
@@ -696,22 +696,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +724,7 @@
   <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -734,10 +734,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1182,7 +1182,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2">
         <v>15.83</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2">
         <v>9.1300000000000008</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="2">
         <v>13.89</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="2">
         <v>10.09</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="2">
         <v>15.84</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>1.41</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>1.72</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
         <v>0.23</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
         <v>0.42</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>0.25</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>0.84</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>0.84</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>0.15</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>0.76</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>0.81</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>1.83</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>0.25</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>0.32</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>1.08</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
         <v>1.18</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>1.45</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>0.68</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
         <v>0.17</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
         <v>0.41</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
         <v>0.26</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>0.24</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
         <v>0.24</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
         <v>0.51</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
         <v>0.04</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>0.03</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2">
         <v>0.19</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2">
         <v>0.02</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2">
         <v>0.02</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2">
         <v>0.14000000000000001</v>
